--- a/TestSv/static/linear_data.xlsx
+++ b/TestSv/static/linear_data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS\CNTT\DA_TN\Test\TestSv\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9511C-7D90-4C7F-90A1-1ED4236001CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Days</t>
   </si>
@@ -37,13 +43,18 @@
   <si>
     <t>Places</t>
   </si>
+  <si>
+    <t>TotalProvince</t>
+  </si>
+  <si>
+    <t>IsLastProvince</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +67,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,35 +103,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -124,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -165,71 +180,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,7 +272,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -280,11 +295,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -293,13 +308,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -309,7 +324,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -318,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -327,7 +342,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -335,10 +350,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -403,720 +418,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>180</v>
+      </c>
+      <c r="C3" s="4">
         <v>2.4</v>
       </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>240</v>
+      </c>
+      <c r="C4" s="4">
         <v>1.3</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>300</v>
+      </c>
+      <c r="C5" s="4">
         <v>1.5</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>240</v>
+      </c>
+      <c r="C6" s="4">
         <v>4.2</v>
       </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>120</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.8</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>360</v>
+      </c>
+      <c r="C8" s="4">
         <v>3.2</v>
       </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>300</v>
+      </c>
+      <c r="C9" s="4">
         <v>4.5</v>
       </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>240</v>
+      </c>
+      <c r="C10" s="4">
         <v>3.8</v>
       </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>180</v>
+      </c>
+      <c r="C11" s="4">
         <v>2.5</v>
       </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>180</v>
+      </c>
+      <c r="C12" s="4">
         <v>1.2</v>
       </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>70.2</v>
+      </c>
+      <c r="C13" s="4">
         <v>8.9</v>
       </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4">
         <v>8.9</v>
       </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4.38</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>262.8</v>
+      </c>
+      <c r="C15" s="4">
         <v>8.9</v>
       </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>360</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>390</v>
+      </c>
+      <c r="C17" s="4">
         <v>3.9</v>
       </c>
-      <c r="D17" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>390</v>
+      </c>
+      <c r="C18" s="4">
         <v>4.8</v>
       </c>
-      <c r="D18" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <v>210</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>360</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>360</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>360</v>
+      </c>
+      <c r="C23" s="4">
         <v>3.5</v>
       </c>
-      <c r="C19" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="2">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>150</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4">
         <v>3.5</v>
       </c>
-      <c r="D23" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>129.6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>144</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>402</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>138</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>204</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>120</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>330</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>180</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <v>150</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>210</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <v>240</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>198</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>360</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>300</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4">
+        <v>246</v>
+      </c>
+      <c r="C42" s="4">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>186</v>
+      </c>
+      <c r="C43" s="4">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>264</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
+        <v>330</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4">
+        <v>120</v>
+      </c>
+      <c r="C46" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>180</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>330</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49" s="4">
+        <v>510</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>195</v>
+      </c>
+      <c r="C50" s="4">
+        <v>15</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C52" s="4">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4">
+        <v>800</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>400</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <v>500</v>
+      </c>
+      <c r="C56" s="4">
         <v>2.5</v>
       </c>
-      <c r="C24" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2.16</v>
-      </c>
-      <c r="C26" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="C27" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="2">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="C28" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="D28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2.3</v>
-      </c>
-      <c r="C29" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="C30" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="2">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4.4</v>
-      </c>
-      <c r="D33" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5">
-        <v>4.4</v>
-      </c>
-      <c r="D34" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="D35" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C36" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="D36" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="C38" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="D40" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5">
-        <v>4.1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="2">
-        <v>2</v>
-      </c>
-      <c r="B42" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="2">
-        <v>2</v>
-      </c>
-      <c r="B43" s="5">
-        <v>4.4</v>
-      </c>
-      <c r="C43" s="2">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C44" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="2">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
-      <c r="C46" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="B47" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C47" s="2">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="C48" s="5">
-        <v>4.6</v>
-      </c>
-      <c r="D48" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="2">
-        <v>2</v>
-      </c>
-      <c r="B49" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="C49" s="2">
-        <v>15</v>
-      </c>
-      <c r="D49" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="2">
-        <v>3</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="C50" s="2">
-        <v>15</v>
-      </c>
-      <c r="D50" s="2">
-        <v>11</v>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1125,23 +1582,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D363"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1169,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1183,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1197,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1211,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1225,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1239,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1253,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1267,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1281,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -1295,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1309,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -1323,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -1337,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1351,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1365,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1379,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1393,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1407,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1421,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1435,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1449,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1463,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -1477,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -1491,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1505,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1519,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -1533,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -1547,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1561,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -1575,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -1589,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3</v>
       </c>
@@ -1603,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -1617,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -1631,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -1645,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -1659,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -1673,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -1687,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -1701,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -1715,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -1729,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -1743,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -1757,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -1771,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -1785,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>6</v>
       </c>
@@ -1799,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>7</v>
       </c>
@@ -1813,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -1827,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -1841,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>6</v>
       </c>
@@ -1855,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>7</v>
       </c>
@@ -1869,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>8</v>
       </c>
@@ -1883,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>8</v>
       </c>
@@ -1897,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>9</v>
       </c>
@@ -1911,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>9</v>
       </c>
@@ -1925,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>3</v>
       </c>
@@ -1939,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -1953,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -1967,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>3</v>
       </c>
@@ -1981,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -1995,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>3</v>
       </c>
@@ -2009,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>3</v>
       </c>
@@ -2023,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>3</v>
       </c>
@@ -2037,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>3</v>
       </c>
@@ -2051,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -2065,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -2079,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>4</v>
       </c>
@@ -2093,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>4</v>
       </c>
@@ -2107,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -2121,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>4</v>
       </c>
@@ -2135,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -2149,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>4</v>
       </c>
@@ -2163,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>4</v>
       </c>
@@ -2177,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>4</v>
       </c>
@@ -2191,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>4</v>
       </c>
@@ -2205,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>4</v>
       </c>
@@ -2219,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>4</v>
       </c>
@@ -2233,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>4</v>
       </c>
@@ -2247,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -2261,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>4</v>
       </c>
@@ -2275,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>4</v>
       </c>
@@ -2289,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>4</v>
       </c>
@@ -2303,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>4</v>
       </c>
@@ -2317,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>4</v>
       </c>
@@ -2331,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>4</v>
       </c>
@@ -2345,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>4</v>
       </c>
@@ -2359,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>4</v>
       </c>
@@ -2373,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>4</v>
       </c>
@@ -2387,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>4</v>
       </c>
@@ -2401,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>4</v>
       </c>
@@ -2415,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>4</v>
       </c>
@@ -2429,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>4</v>
       </c>
@@ -2443,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>4</v>
       </c>
@@ -2457,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>4</v>
       </c>
@@ -2471,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row r="96" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>4</v>
       </c>
@@ -2485,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>4</v>
       </c>
@@ -2499,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row r="98" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>4</v>
       </c>
@@ -2513,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row r="99" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>4</v>
       </c>
@@ -2527,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row r="100" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>4</v>
       </c>
@@ -2541,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row r="101" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>5</v>
       </c>
@@ -2555,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row r="102" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>5</v>
       </c>
@@ -2569,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row r="103" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>5</v>
       </c>
@@ -2583,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>5</v>
       </c>
@@ -2597,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row r="105" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>5</v>
       </c>
@@ -2611,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row r="106" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>5</v>
       </c>
@@ -2625,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row r="107" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>5</v>
       </c>
@@ -2639,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row r="108" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>5</v>
       </c>
@@ -2653,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    <row r="109" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>5</v>
       </c>
@@ -2667,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    <row r="110" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>5</v>
       </c>
@@ -2681,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    <row r="111" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>5</v>
       </c>
@@ -2695,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+    <row r="112" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>5</v>
       </c>
@@ -2709,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+    <row r="113" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>5</v>
       </c>
@@ -2723,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+    <row r="114" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>5</v>
       </c>
@@ -2737,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    <row r="115" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>5</v>
       </c>
@@ -2751,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+    <row r="116" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>5</v>
       </c>
@@ -2765,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>5</v>
       </c>
@@ -2779,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+    <row r="118" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>5</v>
       </c>
@@ -2793,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+    <row r="119" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>5</v>
       </c>
@@ -2807,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+    <row r="120" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>5</v>
       </c>
@@ -2821,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+    <row r="121" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>5</v>
       </c>
@@ -2835,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+    <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>5</v>
       </c>
@@ -2849,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+    <row r="123" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>5</v>
       </c>
@@ -2863,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>5</v>
       </c>
@@ -2877,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+    <row r="125" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>5</v>
       </c>
@@ -2891,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>5</v>
       </c>
@@ -2905,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row r="127" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>5</v>
       </c>
@@ -2919,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>5</v>
       </c>
@@ -2933,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>5</v>
       </c>
@@ -2947,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row r="130" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>5</v>
       </c>
@@ -2961,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>5</v>
       </c>
@@ -2975,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>5</v>
       </c>
@@ -2989,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>5</v>
       </c>
@@ -3003,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>5</v>
       </c>
@@ -3017,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>5</v>
       </c>
@@ -3031,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>5</v>
       </c>
@@ -3045,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>5</v>
       </c>
@@ -3059,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>5</v>
       </c>
@@ -3073,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>5</v>
       </c>
@@ -3087,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>5</v>
       </c>
@@ -3101,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>5</v>
       </c>
@@ -3115,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>5</v>
       </c>
@@ -3129,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>5</v>
       </c>
@@ -3143,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>5</v>
       </c>
@@ -3157,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>5</v>
       </c>
@@ -3171,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>5</v>
       </c>
@@ -3185,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row r="147" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>5</v>
       </c>
@@ -3199,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>5</v>
       </c>
@@ -3213,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>5</v>
       </c>
@@ -3227,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>5</v>
       </c>
@@ -3241,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>5</v>
       </c>
@@ -3255,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+    <row r="152" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>5</v>
       </c>
@@ -3269,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>5</v>
       </c>
@@ -3283,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>5</v>
       </c>
@@ -3297,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row r="155" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>5</v>
       </c>
@@ -3311,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row r="156" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>5</v>
       </c>
@@ -3325,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row r="157" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>6</v>
       </c>
@@ -3339,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>6</v>
       </c>
@@ -3353,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row r="159" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>6</v>
       </c>
@@ -3367,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row r="160" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>6</v>
       </c>
@@ -3381,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row r="161" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>6</v>
       </c>
@@ -3395,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    <row r="162" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>6</v>
       </c>
@@ -3409,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row r="163" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>6</v>
       </c>
@@ -3423,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+    <row r="164" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>6</v>
       </c>
@@ -3437,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>6</v>
       </c>
@@ -3451,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+    <row r="166" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>6</v>
       </c>
@@ -3465,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+    <row r="167" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>6</v>
       </c>
@@ -3479,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>6</v>
       </c>
@@ -3493,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+    <row r="169" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>6</v>
       </c>
@@ -3507,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+    <row r="170" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>6</v>
       </c>
@@ -3521,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+    <row r="171" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>6</v>
       </c>
@@ -3535,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>6</v>
       </c>
@@ -3549,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+    <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>6</v>
       </c>
@@ -3563,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+    <row r="174" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>6</v>
       </c>
@@ -3577,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+    <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>6</v>
       </c>
@@ -3591,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    <row r="176" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>6</v>
       </c>
@@ -3605,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+    <row r="177" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>6</v>
       </c>
@@ -3619,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    <row r="178" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>6</v>
       </c>
@@ -3633,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    <row r="179" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>6</v>
       </c>
@@ -3647,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    <row r="180" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>6</v>
       </c>
@@ -3661,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+    <row r="181" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>6</v>
       </c>
@@ -3675,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>6</v>
       </c>
@@ -3689,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row r="183" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>6</v>
       </c>
@@ -3703,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+    <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>6</v>
       </c>
@@ -3717,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+    <row r="185" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>6</v>
       </c>
@@ -3731,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    <row r="186" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>6</v>
       </c>
@@ -3745,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>6</v>
       </c>
@@ -3759,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    <row r="188" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>6</v>
       </c>
@@ -3773,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+    <row r="189" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>6</v>
       </c>
@@ -3787,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+    <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>6</v>
       </c>
@@ -3801,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -3815,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>6</v>
       </c>
@@ -3829,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+    <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>6</v>
       </c>
@@ -3843,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>6</v>
       </c>
@@ -3857,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+    <row r="195" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>6</v>
       </c>
@@ -3871,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+    <row r="196" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>6</v>
       </c>
@@ -3885,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>6</v>
       </c>
@@ -3899,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+    <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>6</v>
       </c>
@@ -3913,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+    <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>6</v>
       </c>
@@ -3927,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+    <row r="200" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>6</v>
       </c>
@@ -3941,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+    <row r="201" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>6</v>
       </c>
@@ -3955,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+    <row r="202" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>6</v>
       </c>
@@ -3969,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+    <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>6</v>
       </c>
@@ -3983,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+    <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>6</v>
       </c>
@@ -3997,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+    <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>6</v>
       </c>
@@ -4011,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+    <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>6</v>
       </c>
@@ -4025,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+    <row r="207" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>6</v>
       </c>
@@ -4039,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+    <row r="208" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>6</v>
       </c>
@@ -4053,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+    <row r="209" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>6</v>
       </c>
@@ -4067,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+    <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>6</v>
       </c>
@@ -4081,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+    <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>6</v>
       </c>
@@ -4095,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+    <row r="212" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>6</v>
       </c>
@@ -4109,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+    <row r="213" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>6</v>
       </c>
@@ -4123,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+    <row r="214" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>6</v>
       </c>
@@ -4137,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+    <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>6</v>
       </c>
@@ -4151,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+    <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>6</v>
       </c>
@@ -4165,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+    <row r="217" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>6</v>
       </c>
@@ -4179,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+    <row r="218" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>6</v>
       </c>
@@ -4193,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+    <row r="219" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>6</v>
       </c>
@@ -4207,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+    <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>6</v>
       </c>
@@ -4221,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+    <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>6</v>
       </c>
@@ -4235,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+    <row r="222" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>6</v>
       </c>
@@ -4249,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+    <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>6</v>
       </c>
@@ -4263,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+    <row r="224" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>6</v>
       </c>
@@ -4277,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+    <row r="225" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>6</v>
       </c>
@@ -4291,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+    <row r="226" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>6</v>
       </c>
@@ -4305,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+    <row r="227" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>6</v>
       </c>
@@ -4319,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+    <row r="228" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>6</v>
       </c>
@@ -4333,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+    <row r="229" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>6</v>
       </c>
@@ -4347,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+    <row r="230" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>6</v>
       </c>
@@ -4361,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
+    <row r="231" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>6</v>
       </c>
@@ -4375,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
+    <row r="232" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>6</v>
       </c>
@@ -4389,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
+    <row r="233" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>6</v>
       </c>
@@ -4403,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
+    <row r="234" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>6</v>
       </c>
@@ -4417,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
+    <row r="235" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>6</v>
       </c>
@@ -4431,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
+    <row r="236" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>6</v>
       </c>
@@ -4445,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
+    <row r="237" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>6</v>
       </c>
@@ -4459,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
+    <row r="238" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>6</v>
       </c>
@@ -4473,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
+    <row r="239" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>6</v>
       </c>
@@ -4487,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
+    <row r="240" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>6</v>
       </c>
@@ -4501,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
+    <row r="241" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>6</v>
       </c>
@@ -4515,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
+    <row r="242" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>6</v>
       </c>
@@ -4529,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
+    <row r="243" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>6</v>
       </c>
@@ -4543,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
+    <row r="244" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>6</v>
       </c>
@@ -4557,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
+    <row r="245" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>6</v>
       </c>
@@ -4571,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
+    <row r="246" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>7</v>
       </c>
@@ -4585,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
+    <row r="247" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>7</v>
       </c>
@@ -4599,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
+    <row r="248" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>7</v>
       </c>
@@ -4613,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
+    <row r="249" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>7</v>
       </c>
@@ -4627,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
+    <row r="250" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>7</v>
       </c>
@@ -4641,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
+    <row r="251" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>7</v>
       </c>
@@ -4655,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
+    <row r="252" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>7</v>
       </c>
@@ -4669,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
+    <row r="253" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>7</v>
       </c>
@@ -4683,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
+    <row r="254" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>7</v>
       </c>
@@ -4697,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
+    <row r="255" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>7</v>
       </c>
@@ -4711,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
+    <row r="256" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>7</v>
       </c>
@@ -4725,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
+    <row r="257" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>7</v>
       </c>
@@ -4739,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
+    <row r="258" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>7</v>
       </c>
@@ -4753,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
+    <row r="259" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>7</v>
       </c>
@@ -4767,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
+    <row r="260" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>7</v>
       </c>
@@ -4781,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
+    <row r="261" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>7</v>
       </c>
@@ -4795,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
+    <row r="262" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>7</v>
       </c>
@@ -4809,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
+    <row r="263" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>7</v>
       </c>
@@ -4823,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
+    <row r="264" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>7</v>
       </c>
@@ -4837,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
+    <row r="265" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>7</v>
       </c>
@@ -4851,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
+    <row r="266" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>7</v>
       </c>
@@ -4865,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
+    <row r="267" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>7</v>
       </c>
@@ -4879,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
+    <row r="268" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>7</v>
       </c>
@@ -4893,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
+    <row r="269" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>7</v>
       </c>
@@ -4907,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
+    <row r="270" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>7</v>
       </c>
@@ -4921,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
+    <row r="271" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>7</v>
       </c>
@@ -4935,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
+    <row r="272" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>7</v>
       </c>
@@ -4949,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
+    <row r="273" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>7</v>
       </c>
@@ -4963,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
+    <row r="274" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>7</v>
       </c>
@@ -4977,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
+    <row r="275" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>7</v>
       </c>
@@ -4991,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
+    <row r="276" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>7</v>
       </c>
@@ -5005,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
+    <row r="277" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>7</v>
       </c>
@@ -5019,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
+    <row r="278" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>7</v>
       </c>
@@ -5033,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
+    <row r="279" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>7</v>
       </c>
@@ -5047,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
+    <row r="280" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>7</v>
       </c>
@@ -5061,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
+    <row r="281" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>7</v>
       </c>
@@ -5075,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
+    <row r="282" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>7</v>
       </c>
@@ -5089,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
+    <row r="283" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>7</v>
       </c>
@@ -5103,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
+    <row r="284" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>7</v>
       </c>
@@ -5117,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
+    <row r="285" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>7</v>
       </c>
@@ -5131,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
+    <row r="286" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>7</v>
       </c>
@@ -5145,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
+    <row r="287" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>7</v>
       </c>
@@ -5159,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
+    <row r="288" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>7</v>
       </c>
@@ -5173,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
+    <row r="289" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>7</v>
       </c>
@@ -5187,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
+    <row r="290" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>7</v>
       </c>
@@ -5201,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
+    <row r="291" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>7</v>
       </c>
@@ -5215,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
+    <row r="292" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>7</v>
       </c>
@@ -5229,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
+    <row r="293" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>7</v>
       </c>
@@ -5243,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
+    <row r="294" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>8</v>
       </c>
@@ -5257,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
+    <row r="295" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>8</v>
       </c>
@@ -5271,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
+    <row r="296" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>8</v>
       </c>
@@ -5285,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
+    <row r="297" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>8</v>
       </c>
@@ -5299,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
+    <row r="298" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>8</v>
       </c>
@@ -5313,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
+    <row r="299" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>8</v>
       </c>
@@ -5327,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
+    <row r="300" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>8</v>
       </c>
@@ -5341,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
+    <row r="301" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>8</v>
       </c>
@@ -5355,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
+    <row r="302" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>8</v>
       </c>
@@ -5369,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
+    <row r="303" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>8</v>
       </c>
@@ -5383,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
+    <row r="304" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>8</v>
       </c>
@@ -5397,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
+    <row r="305" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>8</v>
       </c>
@@ -5411,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
+    <row r="306" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>8</v>
       </c>
@@ -5425,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
+    <row r="307" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>8</v>
       </c>
@@ -5439,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
+    <row r="308" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>8</v>
       </c>
@@ -5453,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
+    <row r="309" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>8</v>
       </c>
@@ -5467,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
+    <row r="310" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>8</v>
       </c>
@@ -5481,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
+    <row r="311" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>8</v>
       </c>
@@ -5495,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
+    <row r="312" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>8</v>
       </c>
@@ -5509,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
+    <row r="313" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>8</v>
       </c>
@@ -5523,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
+    <row r="314" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>8</v>
       </c>
@@ -5537,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
+    <row r="315" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>8</v>
       </c>
@@ -5551,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
+    <row r="316" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>8</v>
       </c>
@@ -5565,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
+    <row r="317" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>8</v>
       </c>
@@ -5579,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
+    <row r="318" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>8</v>
       </c>
@@ -5593,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
+    <row r="319" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>8</v>
       </c>
@@ -5607,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
+    <row r="320" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>8</v>
       </c>
@@ -5621,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
+    <row r="321" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>8</v>
       </c>
@@ -5635,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
+    <row r="322" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>8</v>
       </c>
@@ -5649,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
+    <row r="323" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>8</v>
       </c>
@@ -5663,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
+    <row r="324" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>8</v>
       </c>
@@ -5677,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
+    <row r="325" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>8</v>
       </c>
@@ -5691,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
+    <row r="326" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>9</v>
       </c>
@@ -5705,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
+    <row r="327" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>9</v>
       </c>
@@ -5719,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
+    <row r="328" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>9</v>
       </c>
@@ -5733,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
+    <row r="329" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>9</v>
       </c>
@@ -5747,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
+    <row r="330" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>9</v>
       </c>
@@ -5761,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
+    <row r="331" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>9</v>
       </c>
@@ -5775,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
+    <row r="332" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>9</v>
       </c>
@@ -5789,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
+    <row r="333" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>9</v>
       </c>
@@ -5803,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
+    <row r="334" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>9</v>
       </c>
@@ -5817,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
+    <row r="335" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>9</v>
       </c>
@@ -5831,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
+    <row r="336" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>9</v>
       </c>
@@ -5845,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
+    <row r="337" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>9</v>
       </c>
@@ -5859,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
+    <row r="338" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>9</v>
       </c>
@@ -5873,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
+    <row r="339" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>9</v>
       </c>
@@ -5887,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
+    <row r="340" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>9</v>
       </c>
@@ -5901,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
+    <row r="341" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>9</v>
       </c>
@@ -5915,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
+    <row r="342" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>9</v>
       </c>
@@ -5929,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
+    <row r="343" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>9</v>
       </c>
@@ -5943,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
+    <row r="344" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>9</v>
       </c>
@@ -5957,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
+    <row r="345" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>9</v>
       </c>
@@ -5971,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
+    <row r="346" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>9</v>
       </c>
@@ -5985,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
+    <row r="347" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>9</v>
       </c>
@@ -5999,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
+    <row r="348" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>9</v>
       </c>
@@ -6013,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
+    <row r="349" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>9</v>
       </c>
@@ -6027,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
+    <row r="350" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>9</v>
       </c>
@@ -6041,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
+    <row r="351" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>9</v>
       </c>
@@ -6055,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
+    <row r="352" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>9</v>
       </c>
@@ -6069,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
+    <row r="353" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>9</v>
       </c>
@@ -6083,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
+    <row r="354" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>9</v>
       </c>
@@ -6097,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
+    <row r="355" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>9</v>
       </c>
@@ -6111,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
+    <row r="356" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>9</v>
       </c>
@@ -6125,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
+    <row r="357" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>9</v>
       </c>
@@ -6139,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
+    <row r="358" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>9</v>
       </c>
@@ -6153,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
+    <row r="359" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>9</v>
       </c>
@@ -6167,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
+    <row r="360" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>9</v>
       </c>
@@ -6181,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
+    <row r="361" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>9</v>
       </c>
@@ -6195,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
+    <row r="362" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>9</v>
       </c>
@@ -6209,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
+    <row r="363" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>9</v>
       </c>

--- a/TestSv/static/linear_data.xlsx
+++ b/TestSv/static/linear_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS\CNTT\DA_TN\Test\TestSv\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9511C-7D90-4C7F-90A1-1ED4236001CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58523DE6-31FD-4E84-B3A3-92226D471DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -117,6 +117,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +423,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,6 +1575,126 @@
       </c>
       <c r="F57" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>10</v>
+      </c>
+      <c r="B58" s="5">
+        <v>30</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5">
+        <v>30</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>10</v>
+      </c>
+      <c r="B60" s="5">
+        <v>30</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>2</v>
+      </c>
+      <c r="B62" s="5">
+        <v>30</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TestSv/static/linear_data.xlsx
+++ b/TestSv/static/linear_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS\CNTT\DA_TN\Test\TestSv\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58523DE6-31FD-4E84-B3A3-92226D471DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA491073-D0D5-4996-9160-DA129FFFA9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -118,6 +118,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +424,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -494,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -514,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -534,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -574,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -774,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -834,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -854,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -934,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -994,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1034,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1074,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1114,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1134,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1154,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1174,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1234,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1274,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1314,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1334,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1454,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1474,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1534,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1574,24 +1575,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B58" s="5">
-        <v>30</v>
+        <v>101.3</v>
       </c>
       <c r="C58" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -1695,6 +1696,166 @@
       </c>
       <c r="F63" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3">
+        <v>200</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3">
+        <v>200</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3">
+        <v>300</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3">
+        <v>300</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
+        <v>120</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3">
+        <v>120</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3">
+        <v>214</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestSv/static/linear_data.xlsx
+++ b/TestSv/static/linear_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS\CNTT\DA_TN\Test\TestSv\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA491073-D0D5-4996-9160-DA129FFFA9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3A3A0C-8C41-4414-901E-8D1E3AC34850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,10 +424,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -855,18 +855,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -875,15 +875,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4">
         <v>3.5</v>
@@ -892,58 +892,58 @@
         <v>2</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>150</v>
+        <v>129.6</v>
       </c>
       <c r="C24" s="4">
-        <v>5.3</v>
+        <v>10.3</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4">
-        <v>3.5</v>
+        <v>10.3</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" s="4">
-        <v>129.6</v>
+        <v>402</v>
       </c>
       <c r="C26" s="4">
         <v>10.3</v>
@@ -952,61 +952,61 @@
         <v>3</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4">
-        <v>10.3</v>
+        <v>9.1</v>
       </c>
       <c r="D27" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>402</v>
+        <v>204</v>
       </c>
       <c r="C28" s="4">
-        <v>10.3</v>
+        <v>9.1</v>
       </c>
       <c r="D28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4">
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -1015,27 +1015,27 @@
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,30 +1043,30 @@
         <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
@@ -1075,67 +1075,67 @@
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="C33" s="4">
-        <v>0.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C35" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="4">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="C36" s="4">
         <v>3.6</v>
@@ -1152,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C37" s="4">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
@@ -1175,35 +1175,35 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" s="4">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C38" s="4">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="D38" s="4">
         <v>3</v>
       </c>
       <c r="E38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="C39" s="4">
         <v>6.9</v>
@@ -1212,21 +1212,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="C40" s="4">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4">
         <v>3</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,27 +1243,27 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="C41" s="4">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="4">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C42" s="4">
         <v>12</v>
@@ -1272,21 +1272,21 @@
         <v>3</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="4">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="C43" s="4">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="D43" s="4">
         <v>3</v>
@@ -1295,35 +1295,35 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="4">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="D44" s="4">
         <v>3</v>
       </c>
       <c r="E44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="4">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C45" s="4">
         <v>4.2</v>
@@ -1332,50 +1332,50 @@
         <v>3</v>
       </c>
       <c r="E45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="4">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="C46" s="4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D46" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="4">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="C47" s="4">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D47" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1383,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="4">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="C48" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -1395,18 +1395,18 @@
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>3</v>
       </c>
       <c r="B49" s="4">
-        <v>510</v>
+        <v>105</v>
       </c>
       <c r="C49" s="4">
-        <v>4.5999999999999996</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
@@ -1415,18 +1415,18 @@
         <v>1</v>
       </c>
       <c r="F49" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="4">
-        <v>195</v>
+        <v>1050</v>
       </c>
       <c r="C50" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -1435,18 +1435,18 @@
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" s="4">
-        <v>105</v>
+        <v>1050</v>
       </c>
       <c r="C51" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -1455,58 +1455,58 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="4">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="C52" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="C53" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
       </c>
       <c r="E53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="4">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="C54" s="4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -1515,87 +1515,87 @@
         <v>1</v>
       </c>
       <c r="F54" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="4">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="C55" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>1</v>
-      </c>
-      <c r="B56" s="4">
-        <v>500</v>
+      <c r="A56" s="5">
+        <v>5</v>
+      </c>
+      <c r="B56" s="5">
+        <v>101.3</v>
       </c>
       <c r="C56" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
+        <v>3.5</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>1</v>
-      </c>
-      <c r="B57" s="4">
-        <v>2000</v>
+      <c r="A57" s="5">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5">
+        <v>30</v>
       </c>
       <c r="C57" s="4">
-        <v>5</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B58" s="5">
-        <v>101.3</v>
-      </c>
-      <c r="C58" s="5">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>3.5</v>
       </c>
       <c r="D58" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1603,259 +1603,339 @@
         <v>10</v>
       </c>
       <c r="B59" s="5">
-        <v>30</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3.5</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
       </c>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B60" s="5">
         <v>30</v>
       </c>
-      <c r="C60" s="5">
-        <v>1</v>
+      <c r="C60" s="4">
+        <v>3.5</v>
       </c>
       <c r="D60" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
       </c>
       <c r="F60" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B61" s="5">
         <v>1000</v>
       </c>
-      <c r="C61" s="5">
-        <v>1</v>
+      <c r="C61" s="4">
+        <v>3.5</v>
       </c>
       <c r="D61" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>2</v>
-      </c>
-      <c r="B62" s="5">
-        <v>30</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3">
+        <v>200</v>
+      </c>
+      <c r="C62" s="4">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
       </c>
       <c r="E62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>3</v>
-      </c>
-      <c r="B63" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2</v>
+      <c r="A63" s="1">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3">
+        <v>200</v>
+      </c>
+      <c r="C63" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
       </c>
       <c r="E63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" s="3">
-        <v>200</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3.5</v>
       </c>
       <c r="D64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="3">
-        <v>200</v>
-      </c>
-      <c r="C65" s="1">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3.5</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>300</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3.5</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6">
-        <v>0</v>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="3">
-        <v>300</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C67" s="4">
+        <v>3.5</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
       </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="6">
-        <v>0</v>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" s="3">
         <v>120</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
+      <c r="C68" s="4">
+        <v>3.6</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>50</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="C69" s="4">
+        <v>3.5</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
       </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-      <c r="F69" s="6">
-        <v>0</v>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" s="3">
-        <v>120</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
+        <v>202.9</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3.5</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="3">
-        <v>214</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3.5</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>65</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>180</v>
+      </c>
+      <c r="C73" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3">
+        <v>156</v>
+      </c>
+      <c r="C74" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3">
+        <v>175</v>
+      </c>
+      <c r="C75" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
